--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.23751509080227</v>
+        <v>5.542102</v>
       </c>
       <c r="H2">
-        <v>5.23751509080227</v>
+        <v>16.626306</v>
       </c>
       <c r="I2">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J2">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.41350906831273</v>
+        <v>5.616972666666666</v>
       </c>
       <c r="N2">
-        <v>5.41350906831273</v>
+        <v>16.850918</v>
       </c>
       <c r="O2">
-        <v>0.2522491923863415</v>
+        <v>0.2248624183853938</v>
       </c>
       <c r="P2">
-        <v>0.2522491923863415</v>
+        <v>0.2248624183853938</v>
       </c>
       <c r="Q2">
-        <v>28.35333543948286</v>
+        <v>31.12983544987867</v>
       </c>
       <c r="R2">
-        <v>28.35333543948286</v>
+        <v>280.168519048908</v>
       </c>
       <c r="S2">
-        <v>0.06286271485725578</v>
+        <v>0.05310861306308613</v>
       </c>
       <c r="T2">
-        <v>0.06286271485725578</v>
+        <v>0.05310861306308611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.23751509080227</v>
+        <v>5.542102</v>
       </c>
       <c r="H3">
-        <v>5.23751509080227</v>
+        <v>16.626306</v>
       </c>
       <c r="I3">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J3">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.1137165985741</v>
+        <v>12.20369633333333</v>
       </c>
       <c r="N3">
-        <v>12.1137165985741</v>
+        <v>36.611089</v>
       </c>
       <c r="O3">
-        <v>0.5644537009595743</v>
+        <v>0.4885465594374674</v>
       </c>
       <c r="P3">
-        <v>0.5644537009595743</v>
+        <v>0.4885465594374673</v>
       </c>
       <c r="Q3">
-        <v>63.44577349073379</v>
+        <v>67.63412985635934</v>
       </c>
       <c r="R3">
-        <v>63.44577349073379</v>
+        <v>608.707168707234</v>
       </c>
       <c r="S3">
-        <v>0.1406668212407951</v>
+        <v>0.1153862453973848</v>
       </c>
       <c r="T3">
-        <v>0.1406668212407951</v>
+        <v>0.1153862453973848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.23751509080227</v>
+        <v>5.542102</v>
       </c>
       <c r="H4">
-        <v>5.23751509080227</v>
+        <v>16.626306</v>
       </c>
       <c r="I4">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J4">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.10677980923581</v>
+        <v>1.734464333333333</v>
       </c>
       <c r="N4">
-        <v>1.10677980923581</v>
+        <v>5.203393</v>
       </c>
       <c r="O4">
-        <v>0.05157178264712093</v>
+        <v>0.06943523989551367</v>
       </c>
       <c r="P4">
-        <v>0.05157178264712093</v>
+        <v>0.06943523989551366</v>
       </c>
       <c r="Q4">
-        <v>5.796775953067812</v>
+        <v>9.612578250695334</v>
       </c>
       <c r="R4">
-        <v>5.796775953067812</v>
+        <v>86.51320425625801</v>
       </c>
       <c r="S4">
-        <v>0.01285214131532687</v>
+        <v>0.01639940242140938</v>
       </c>
       <c r="T4">
-        <v>0.01285214131532687</v>
+        <v>0.01639940242140938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.23751509080227</v>
+        <v>5.542102</v>
       </c>
       <c r="H5">
-        <v>5.23751509080227</v>
+        <v>16.626306</v>
       </c>
       <c r="I5">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J5">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.82695151287525</v>
+        <v>5.424464</v>
       </c>
       <c r="N5">
-        <v>2.82695151287525</v>
+        <v>16.273392</v>
       </c>
       <c r="O5">
-        <v>0.1317253240069633</v>
+        <v>0.2171557822816253</v>
       </c>
       <c r="P5">
-        <v>0.1317253240069633</v>
+        <v>0.2171557822816252</v>
       </c>
       <c r="Q5">
-        <v>14.80620120965043</v>
+        <v>30.062932783328</v>
       </c>
       <c r="R5">
-        <v>14.80620120965043</v>
+        <v>270.566395049952</v>
       </c>
       <c r="S5">
-        <v>0.03282710800455958</v>
+        <v>0.05128843894154143</v>
       </c>
       <c r="T5">
-        <v>0.03282710800455958</v>
+        <v>0.05128843894154141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.46672302469283</v>
+        <v>3.525638333333333</v>
       </c>
       <c r="H6">
-        <v>3.46672302469283</v>
+        <v>10.576915</v>
       </c>
       <c r="I6">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="J6">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.41350906831273</v>
+        <v>5.616972666666666</v>
       </c>
       <c r="N6">
-        <v>5.41350906831273</v>
+        <v>16.850918</v>
       </c>
       <c r="O6">
-        <v>0.2522491923863415</v>
+        <v>0.2248624183853938</v>
       </c>
       <c r="P6">
-        <v>0.2522491923863415</v>
+        <v>0.2248624183853938</v>
       </c>
       <c r="Q6">
-        <v>18.76713653150317</v>
+        <v>19.80341415088555</v>
       </c>
       <c r="R6">
-        <v>18.76713653150317</v>
+        <v>178.23072735797</v>
       </c>
       <c r="S6">
-        <v>0.04160897242531229</v>
+        <v>0.03378533308217421</v>
       </c>
       <c r="T6">
-        <v>0.04160897242531229</v>
+        <v>0.0337853330821742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.46672302469283</v>
+        <v>3.525638333333333</v>
       </c>
       <c r="H7">
-        <v>3.46672302469283</v>
+        <v>10.576915</v>
       </c>
       <c r="I7">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="J7">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.1137165985741</v>
+        <v>12.20369633333333</v>
       </c>
       <c r="N7">
-        <v>12.1137165985741</v>
+        <v>36.611089</v>
       </c>
       <c r="O7">
-        <v>0.5644537009595743</v>
+        <v>0.4885465594374674</v>
       </c>
       <c r="P7">
-        <v>0.5644537009595743</v>
+        <v>0.4885465594374673</v>
       </c>
       <c r="Q7">
-        <v>41.99490024688055</v>
+        <v>43.02581960115944</v>
       </c>
       <c r="R7">
-        <v>41.99490024688055</v>
+        <v>387.232376410435</v>
       </c>
       <c r="S7">
-        <v>0.09310768552480055</v>
+        <v>0.07340358764822928</v>
       </c>
       <c r="T7">
-        <v>0.09310768552480055</v>
+        <v>0.07340358764822925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.46672302469283</v>
+        <v>3.525638333333333</v>
       </c>
       <c r="H8">
-        <v>3.46672302469283</v>
+        <v>10.576915</v>
       </c>
       <c r="I8">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="J8">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.10677980923581</v>
+        <v>1.734464333333333</v>
       </c>
       <c r="N8">
-        <v>1.10677980923581</v>
+        <v>5.203393</v>
       </c>
       <c r="O8">
-        <v>0.05157178264712093</v>
+        <v>0.06943523989551367</v>
       </c>
       <c r="P8">
-        <v>0.05157178264712093</v>
+        <v>0.06943523989551366</v>
       </c>
       <c r="Q8">
-        <v>3.836899047942921</v>
+        <v>6.115093941399445</v>
       </c>
       <c r="R8">
-        <v>3.836899047942921</v>
+        <v>55.035845472595</v>
       </c>
       <c r="S8">
-        <v>0.008506861258059849</v>
+        <v>0.010432569054247</v>
       </c>
       <c r="T8">
-        <v>0.008506861258059849</v>
+        <v>0.01043256905424699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.46672302469283</v>
+        <v>3.525638333333333</v>
       </c>
       <c r="H9">
-        <v>3.46672302469283</v>
+        <v>10.576915</v>
       </c>
       <c r="I9">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="J9">
-        <v>0.164951855867925</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.82695151287525</v>
+        <v>5.424464</v>
       </c>
       <c r="N9">
-        <v>2.82695151287525</v>
+        <v>16.273392</v>
       </c>
       <c r="O9">
-        <v>0.1317253240069633</v>
+        <v>0.2171557822816253</v>
       </c>
       <c r="P9">
-        <v>0.1317253240069633</v>
+        <v>0.2171557822816252</v>
       </c>
       <c r="Q9">
-        <v>9.800257899374859</v>
+        <v>19.12469821618667</v>
       </c>
       <c r="R9">
-        <v>9.800257899374859</v>
+        <v>172.12228394568</v>
       </c>
       <c r="S9">
-        <v>0.02172833665975233</v>
+        <v>0.03262741941399212</v>
       </c>
       <c r="T9">
-        <v>0.02172833665975233</v>
+        <v>0.0326274194139921</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.826771711127</v>
+        <v>13.07613666666666</v>
       </c>
       <c r="H10">
-        <v>11.826771711127</v>
+        <v>39.22841</v>
       </c>
       <c r="I10">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="J10">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.41350906831273</v>
+        <v>5.616972666666666</v>
       </c>
       <c r="N10">
-        <v>5.41350906831273</v>
+        <v>16.850918</v>
       </c>
       <c r="O10">
-        <v>0.2522491923863415</v>
+        <v>0.2248624183853938</v>
       </c>
       <c r="P10">
-        <v>0.2522491923863415</v>
+        <v>0.2248624183853938</v>
       </c>
       <c r="Q10">
-        <v>64.02433590705047</v>
+        <v>73.44830224226443</v>
       </c>
       <c r="R10">
-        <v>64.02433590705047</v>
+        <v>661.03472018038</v>
       </c>
       <c r="S10">
-        <v>0.1419495628879522</v>
+        <v>0.1253054315113711</v>
       </c>
       <c r="T10">
-        <v>0.1419495628879522</v>
+        <v>0.1253054315113711</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.826771711127</v>
+        <v>13.07613666666666</v>
       </c>
       <c r="H11">
-        <v>11.826771711127</v>
+        <v>39.22841</v>
       </c>
       <c r="I11">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="J11">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1137165985741</v>
+        <v>12.20369633333333</v>
       </c>
       <c r="N11">
-        <v>12.1137165985741</v>
+        <v>36.611089</v>
       </c>
       <c r="O11">
-        <v>0.5644537009595743</v>
+        <v>0.4885465594374674</v>
       </c>
       <c r="P11">
-        <v>0.5644537009595743</v>
+        <v>0.4885465594374673</v>
       </c>
       <c r="Q11">
-        <v>143.2661607846258</v>
+        <v>159.5772010931655</v>
       </c>
       <c r="R11">
-        <v>143.2661607846258</v>
+        <v>1436.19480983849</v>
       </c>
       <c r="S11">
-        <v>0.3176381076335883</v>
+        <v>0.272244414532562</v>
       </c>
       <c r="T11">
-        <v>0.3176381076335883</v>
+        <v>0.272244414532562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.826771711127</v>
+        <v>13.07613666666666</v>
       </c>
       <c r="H12">
-        <v>11.826771711127</v>
+        <v>39.22841</v>
       </c>
       <c r="I12">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="J12">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.10677980923581</v>
+        <v>1.734464333333333</v>
       </c>
       <c r="N12">
-        <v>1.10677980923581</v>
+        <v>5.203393</v>
       </c>
       <c r="O12">
-        <v>0.05157178264712093</v>
+        <v>0.06943523989551367</v>
       </c>
       <c r="P12">
-        <v>0.05157178264712093</v>
+        <v>0.06943523989551366</v>
       </c>
       <c r="Q12">
-        <v>13.08963213831662</v>
+        <v>22.68009266612555</v>
       </c>
       <c r="R12">
-        <v>13.08963213831662</v>
+        <v>204.12083399513</v>
       </c>
       <c r="S12">
-        <v>0.0290212703353245</v>
+        <v>0.03869304955304202</v>
       </c>
       <c r="T12">
-        <v>0.0290212703353245</v>
+        <v>0.03869304955304202</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.826771711127</v>
+        <v>13.07613666666666</v>
       </c>
       <c r="H13">
-        <v>11.826771711127</v>
+        <v>39.22841</v>
       </c>
       <c r="I13">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="J13">
-        <v>0.5627354503896455</v>
+        <v>0.5572537750466107</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.82695151287525</v>
+        <v>5.424464</v>
       </c>
       <c r="N13">
-        <v>2.82695151287525</v>
+        <v>16.273392</v>
       </c>
       <c r="O13">
-        <v>0.1317253240069633</v>
+        <v>0.2171557822816253</v>
       </c>
       <c r="P13">
-        <v>0.1317253240069633</v>
+        <v>0.2171557822816252</v>
       </c>
       <c r="Q13">
-        <v>33.43371018120068</v>
+        <v>70.93103260741333</v>
       </c>
       <c r="R13">
-        <v>33.43371018120068</v>
+        <v>638.37929346672</v>
       </c>
       <c r="S13">
-        <v>0.07412650953278045</v>
+        <v>0.1210108794496356</v>
       </c>
       <c r="T13">
-        <v>0.07412650953278045</v>
+        <v>0.1210108794496356</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.485565018516919</v>
+        <v>1.321440333333333</v>
       </c>
       <c r="H14">
-        <v>0.485565018516919</v>
+        <v>3.964321</v>
       </c>
       <c r="I14">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132515</v>
       </c>
       <c r="J14">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132514</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.41350906831273</v>
+        <v>5.616972666666666</v>
       </c>
       <c r="N14">
-        <v>5.41350906831273</v>
+        <v>16.850918</v>
       </c>
       <c r="O14">
-        <v>0.2522491923863415</v>
+        <v>0.2248624183853938</v>
       </c>
       <c r="P14">
-        <v>0.2522491923863415</v>
+        <v>0.2248624183853938</v>
       </c>
       <c r="Q14">
-        <v>2.62861063099678</v>
+        <v>7.422494232964221</v>
       </c>
       <c r="R14">
-        <v>2.62861063099678</v>
+        <v>66.80244809667799</v>
       </c>
       <c r="S14">
-        <v>0.005827942215821209</v>
+        <v>0.0126630407287624</v>
       </c>
       <c r="T14">
-        <v>0.005827942215821209</v>
+        <v>0.01266304072876239</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.485565018516919</v>
+        <v>1.321440333333333</v>
       </c>
       <c r="H15">
-        <v>0.485565018516919</v>
+        <v>3.964321</v>
       </c>
       <c r="I15">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132515</v>
       </c>
       <c r="J15">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132514</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.1137165985741</v>
+        <v>12.20369633333333</v>
       </c>
       <c r="N15">
-        <v>12.1137165985741</v>
+        <v>36.611089</v>
       </c>
       <c r="O15">
-        <v>0.5644537009595743</v>
+        <v>0.4885465594374674</v>
       </c>
       <c r="P15">
-        <v>0.5644537009595743</v>
+        <v>0.4885465594374673</v>
       </c>
       <c r="Q15">
-        <v>5.881997024495343</v>
+        <v>16.12645655061878</v>
       </c>
       <c r="R15">
-        <v>5.881997024495343</v>
+        <v>145.138108955569</v>
       </c>
       <c r="S15">
-        <v>0.01304108656039029</v>
+        <v>0.02751231185929129</v>
       </c>
       <c r="T15">
-        <v>0.01304108656039029</v>
+        <v>0.02751231185929128</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.485565018516919</v>
+        <v>1.321440333333333</v>
       </c>
       <c r="H16">
-        <v>0.485565018516919</v>
+        <v>3.964321</v>
       </c>
       <c r="I16">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132515</v>
       </c>
       <c r="J16">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132514</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.10677980923581</v>
+        <v>1.734464333333333</v>
       </c>
       <c r="N16">
-        <v>1.10677980923581</v>
+        <v>5.203393</v>
       </c>
       <c r="O16">
-        <v>0.05157178264712093</v>
+        <v>0.06943523989551367</v>
       </c>
       <c r="P16">
-        <v>0.05157178264712093</v>
+        <v>0.06943523989551366</v>
       </c>
       <c r="Q16">
-        <v>0.5374135585657382</v>
+        <v>2.291991126794777</v>
       </c>
       <c r="R16">
-        <v>0.5374135585657382</v>
+        <v>20.627920141153</v>
       </c>
       <c r="S16">
-        <v>0.001191509738409715</v>
+        <v>0.003910218866815278</v>
       </c>
       <c r="T16">
-        <v>0.001191509738409715</v>
+        <v>0.003910218866815277</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.485565018516919</v>
+        <v>1.321440333333333</v>
       </c>
       <c r="H17">
-        <v>0.485565018516919</v>
+        <v>3.964321</v>
       </c>
       <c r="I17">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132515</v>
       </c>
       <c r="J17">
-        <v>0.02310390832449212</v>
+        <v>0.05631461593132514</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.82695151287525</v>
+        <v>5.424464</v>
       </c>
       <c r="N17">
-        <v>2.82695151287525</v>
+        <v>16.273392</v>
       </c>
       <c r="O17">
-        <v>0.1317253240069633</v>
+        <v>0.2171557822816253</v>
       </c>
       <c r="P17">
-        <v>0.1317253240069633</v>
+        <v>0.2171557822816252</v>
       </c>
       <c r="Q17">
-        <v>1.372668763695703</v>
+        <v>7.168105516314666</v>
       </c>
       <c r="R17">
-        <v>1.372668763695703</v>
+        <v>64.512949646832</v>
       </c>
       <c r="S17">
-        <v>0.0030433698098709</v>
+        <v>0.01222904447645619</v>
       </c>
       <c r="T17">
-        <v>0.0030433698098709</v>
+        <v>0.01222904447645619</v>
       </c>
     </row>
   </sheetData>
